--- a/Results/Заклади з таблиці надавачів ПМД, які мають звітувати в Meddata.xlsx
+++ b/Results/Заклади з таблиці надавачів ПМД, які мають звітувати в Meddata.xlsx
@@ -30,7 +30,7 @@
     <sheet name="Черкаська" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="Чернівецька" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="Чернігівська" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="місто Київ" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="м. Київ" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -17799,7 +17799,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -17886,7 +17886,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -18147,7 +18147,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -18234,7 +18234,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -18321,7 +18321,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>місто Київ</t>
+          <t>м. Київ</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
